--- a/Code/Results/Cases/Case_2_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_79/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.764037068772552</v>
+        <v>0.9272846058831874</v>
       </c>
       <c r="C2">
-        <v>0.8671997674044007</v>
+        <v>0.2634518976413744</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6954496107580042</v>
+        <v>0.6412964237335359</v>
       </c>
       <c r="F2">
-        <v>2.330361349613753</v>
+        <v>2.281229430714916</v>
       </c>
       <c r="G2">
-        <v>0.6344440599805097</v>
+        <v>0.5092661030865457</v>
       </c>
       <c r="H2">
-        <v>0.3823529416019511</v>
+        <v>0.6058954889206092</v>
       </c>
       <c r="I2">
-        <v>0.2322351550415291</v>
+        <v>0.4041742183378254</v>
       </c>
       <c r="J2">
-        <v>0.04028689715129019</v>
+        <v>0.04263032953159041</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5708120063652444</v>
+        <v>0.8910042122132182</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.396908820423619</v>
+        <v>0.8198046374234877</v>
       </c>
       <c r="C3">
-        <v>0.7521966965586557</v>
+        <v>0.2297148884699425</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6136262586052652</v>
+        <v>0.6235082885638974</v>
       </c>
       <c r="F3">
-        <v>2.076532635843577</v>
+        <v>2.236345635763882</v>
       </c>
       <c r="G3">
-        <v>0.5644229559994471</v>
+        <v>0.4982493348151849</v>
       </c>
       <c r="H3">
-        <v>0.3580853617282713</v>
+        <v>0.6063680181053002</v>
       </c>
       <c r="I3">
-        <v>0.2239792763467641</v>
+        <v>0.4077551735070664</v>
       </c>
       <c r="J3">
-        <v>0.03643165798783699</v>
+        <v>0.04221842670643738</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5902359562971071</v>
+        <v>0.8993479844436933</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.172657892393829</v>
+        <v>0.7538440884654847</v>
       </c>
       <c r="C4">
-        <v>0.6820566839591038</v>
+        <v>0.2089680199773056</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5641968103571742</v>
+        <v>0.6128722674480471</v>
       </c>
       <c r="F4">
-        <v>1.925285349090146</v>
+        <v>2.210316002449588</v>
       </c>
       <c r="G4">
-        <v>0.5234756162379881</v>
+        <v>0.4920306353164818</v>
       </c>
       <c r="H4">
-        <v>0.3443387099858484</v>
+        <v>0.6071051769158942</v>
       </c>
       <c r="I4">
-        <v>0.2199687595081947</v>
+        <v>0.4103307938338645</v>
       </c>
       <c r="J4">
-        <v>0.03420279291781014</v>
+        <v>0.04200650065330791</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6032279887223666</v>
+        <v>0.9049141731238635</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.081507679612969</v>
+        <v>0.7269734137487376</v>
       </c>
       <c r="C5">
-        <v>0.6535689323952454</v>
+        <v>0.2005053538736377</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5442345172777578</v>
+        <v>0.6086098355900162</v>
       </c>
       <c r="F5">
-        <v>1.86469584815292</v>
+        <v>2.200091814189193</v>
       </c>
       <c r="G5">
-        <v>0.5072554847086366</v>
+        <v>0.4896326738082593</v>
       </c>
       <c r="H5">
-        <v>0.3390048065732287</v>
+        <v>0.6075176360250367</v>
       </c>
       <c r="I5">
-        <v>0.2185811970262712</v>
+        <v>0.411474732027127</v>
       </c>
       <c r="J5">
-        <v>0.0333261286826918</v>
+        <v>0.04193038097091417</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6087796458714294</v>
+        <v>0.9072938784523217</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.066384720260999</v>
+        <v>0.722512106970612</v>
       </c>
       <c r="C6">
-        <v>0.6488436288895514</v>
+        <v>0.1990996411257697</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5409300589925863</v>
+        <v>0.6079063984795567</v>
       </c>
       <c r="F6">
-        <v>1.854694979742376</v>
+        <v>2.198417192211423</v>
       </c>
       <c r="G6">
-        <v>0.5045889571462254</v>
+        <v>0.4892426917128603</v>
       </c>
       <c r="H6">
-        <v>0.3381346819789144</v>
+        <v>0.6075928826437149</v>
       </c>
       <c r="I6">
-        <v>0.2183651528107546</v>
+        <v>0.411670368380463</v>
       </c>
       <c r="J6">
-        <v>0.03318238091609516</v>
+        <v>0.04191835807998245</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6097167364575853</v>
+        <v>0.9076957581016885</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.171427737519764</v>
+        <v>0.75348166478949</v>
       </c>
       <c r="C7">
-        <v>0.6816721343089398</v>
+        <v>0.2088539225558463</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5639268899218663</v>
+        <v>0.6128144920489262</v>
       </c>
       <c r="F7">
-        <v>1.924464129893039</v>
+        <v>2.210176566217541</v>
       </c>
       <c r="G7">
-        <v>0.5232550393892694</v>
+        <v>0.4919977453850208</v>
       </c>
       <c r="H7">
-        <v>0.3442657182632587</v>
+        <v>0.6071102862168658</v>
       </c>
       <c r="I7">
-        <v>0.2199490720034412</v>
+        <v>0.4103458399192448</v>
       </c>
       <c r="J7">
-        <v>0.03419084590583665</v>
+        <v>0.04200543269177359</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6033018320815131</v>
+        <v>0.9049458154238295</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.637171555183158</v>
+        <v>0.8902190672761208</v>
       </c>
       <c r="C8">
-        <v>0.8274336749514362</v>
+        <v>0.2518260207222056</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6670541546448305</v>
+        <v>0.6351036692010723</v>
       </c>
       <c r="F8">
-        <v>2.241814880927521</v>
+        <v>2.265435228476164</v>
       </c>
       <c r="G8">
-        <v>0.6098460563670045</v>
+        <v>0.5053536681960935</v>
       </c>
       <c r="H8">
-        <v>0.3737321944352772</v>
+        <v>0.6059654260014895</v>
       </c>
       <c r="I8">
-        <v>0.2291566896072297</v>
+        <v>0.4053304513201006</v>
       </c>
       <c r="J8">
-        <v>0.0389269427976231</v>
+        <v>0.04247976046560353</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5772815596486183</v>
+        <v>0.8937891953170549</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.56273156758192</v>
+        <v>1.158607299643222</v>
       </c>
       <c r="C9">
-        <v>1.118211756341253</v>
+        <v>0.3358451710723216</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8768750297240047</v>
+        <v>0.6810881866650362</v>
       </c>
       <c r="F9">
-        <v>2.906255249991943</v>
+        <v>2.386004436541981</v>
       </c>
       <c r="G9">
-        <v>0.798249720223609</v>
+        <v>0.535921121353411</v>
       </c>
       <c r="H9">
-        <v>0.4417567456098936</v>
+        <v>0.6072838587067366</v>
       </c>
       <c r="I9">
-        <v>0.2565620604348737</v>
+        <v>0.3985051194819036</v>
       </c>
       <c r="J9">
-        <v>0.04946665942050998</v>
+        <v>0.04373810663318167</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5352306563956901</v>
+        <v>0.875426176943229</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.254811672095002</v>
+        <v>1.355947102412756</v>
       </c>
       <c r="C10">
-        <v>1.336709321589638</v>
+        <v>0.397437545182413</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.037461880048411</v>
+        <v>0.7162737084558159</v>
       </c>
       <c r="F10">
-        <v>3.428697657526328</v>
+        <v>2.482143533284869</v>
       </c>
       <c r="G10">
-        <v>0.9516233314895857</v>
+        <v>0.5611153989909212</v>
       </c>
       <c r="H10">
-        <v>0.4996375952638061</v>
+        <v>0.6104491749223939</v>
       </c>
       <c r="I10">
-        <v>0.2838405902596719</v>
+        <v>0.3953524996929403</v>
       </c>
       <c r="J10">
-        <v>0.05821164502319931</v>
+        <v>0.04486701852786723</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5105925763601959</v>
+        <v>0.8640776577463853</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.573435970400226</v>
+        <v>1.445758203071875</v>
       </c>
       <c r="C11">
-        <v>1.437633860752953</v>
+        <v>0.4254315965901014</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.112374468689694</v>
+        <v>0.732587914826567</v>
       </c>
       <c r="F11">
-        <v>3.675985033935945</v>
+        <v>2.527546458624442</v>
       </c>
       <c r="G11">
-        <v>1.025548048629062</v>
+        <v>0.5731860576235448</v>
       </c>
       <c r="H11">
-        <v>0.5281005174667683</v>
+        <v>0.6123714998538787</v>
       </c>
       <c r="I11">
-        <v>0.2981613536371128</v>
+        <v>0.3943284823118276</v>
       </c>
       <c r="J11">
-        <v>0.06246732024109036</v>
+        <v>0.04542592343729979</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5009370794413854</v>
+        <v>0.8593803704753284</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.694743765607541</v>
+        <v>1.479772873619652</v>
       </c>
       <c r="C12">
-        <v>1.476115186924801</v>
+        <v>0.4360288444809157</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.141053285808738</v>
+        <v>0.7388101697025036</v>
       </c>
       <c r="F12">
-        <v>3.771215415496187</v>
+        <v>2.544981194471603</v>
       </c>
       <c r="G12">
-        <v>1.054223612809579</v>
+        <v>0.5778457256316898</v>
       </c>
       <c r="H12">
-        <v>0.5392243491287729</v>
+        <v>0.6131692218982892</v>
       </c>
       <c r="I12">
-        <v>0.303892879804863</v>
+        <v>0.3940001676072313</v>
       </c>
       <c r="J12">
-        <v>0.06412439524780922</v>
+        <v>0.04564416285742823</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4975221987103851</v>
+        <v>0.8576685564841497</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.668587159276115</v>
+        <v>1.472446986295665</v>
       </c>
       <c r="C13">
-        <v>1.467815082001891</v>
+        <v>0.4337466919985786</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.134862205017143</v>
+        <v>0.7374681184387981</v>
       </c>
       <c r="F13">
-        <v>3.750631719170229</v>
+        <v>2.541215538694985</v>
       </c>
       <c r="G13">
-        <v>1.048016044804172</v>
+        <v>0.5768382169797803</v>
       </c>
       <c r="H13">
-        <v>0.536812599929732</v>
+        <v>0.6129943081663498</v>
       </c>
       <c r="I13">
-        <v>0.3026441944989529</v>
+        <v>0.3940682239054567</v>
       </c>
       <c r="J13">
-        <v>0.06376539231654021</v>
+        <v>0.0455968666612776</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.498246606815556</v>
+        <v>0.8580342479042145</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.583402324468523</v>
+        <v>1.448556510718504</v>
       </c>
       <c r="C14">
-        <v>1.44079419618356</v>
+        <v>0.4263035082313991</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.114727390081171</v>
+        <v>0.7330989326114832</v>
       </c>
       <c r="F14">
-        <v>3.683786615881417</v>
+        <v>2.528975972526013</v>
       </c>
       <c r="G14">
-        <v>1.027893021541189</v>
+        <v>0.5735676258590416</v>
       </c>
       <c r="H14">
-        <v>0.5290085187189248</v>
+        <v>0.6124357280857993</v>
       </c>
       <c r="I14">
-        <v>0.2986264998687247</v>
+        <v>0.3943002772527961</v>
       </c>
       <c r="J14">
-        <v>0.06260270147963354</v>
+        <v>0.04544374555347019</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5006511855259888</v>
+        <v>0.8592381964829059</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.53131237512622</v>
+        <v>1.433923557583796</v>
       </c>
       <c r="C15">
-        <v>1.424278804085873</v>
+        <v>0.421743890071582</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.102436124048168</v>
+        <v>0.7304284681367932</v>
       </c>
       <c r="F15">
-        <v>3.643055321575901</v>
+        <v>2.521510402438196</v>
       </c>
       <c r="G15">
-        <v>1.015658555179058</v>
+        <v>0.5715758878897503</v>
       </c>
       <c r="H15">
-        <v>0.5242745196608638</v>
+        <v>0.6121026812042629</v>
       </c>
       <c r="I15">
-        <v>0.2962067909683554</v>
+        <v>0.3944501742482558</v>
       </c>
       <c r="J15">
-        <v>0.06189662897291726</v>
+        <v>0.04535081536453589</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5021560737036737</v>
+        <v>0.8599843698039535</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.234073974085902</v>
+        <v>1.350078491257818</v>
       </c>
       <c r="C16">
-        <v>1.330148039263577</v>
+        <v>0.3956075766478762</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.032607205408866</v>
+        <v>0.7152137464171204</v>
       </c>
       <c r="F16">
-        <v>3.412747437213909</v>
+        <v>2.47921006722791</v>
       </c>
       <c r="G16">
-        <v>0.9468827886801563</v>
+        <v>0.5603389151255413</v>
       </c>
       <c r="H16">
-        <v>0.497823618022835</v>
+        <v>0.6103332886791719</v>
       </c>
       <c r="I16">
-        <v>0.2829459596220687</v>
+        <v>0.3954277156335237</v>
       </c>
       <c r="J16">
-        <v>0.05793957867570043</v>
+        <v>0.04483141162020132</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5112563414943025</v>
+        <v>0.8643940018529221</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.052771420338047</v>
+        <v>1.298652111627575</v>
       </c>
       <c r="C17">
-        <v>1.272822882442313</v>
+        <v>0.3795675209228193</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9902753095974788</v>
+        <v>0.7059590046371085</v>
       </c>
       <c r="F17">
-        <v>3.274064227577753</v>
+        <v>2.453688772807197</v>
       </c>
       <c r="G17">
-        <v>0.9058124003997534</v>
+        <v>0.5536023274106157</v>
       </c>
       <c r="H17">
-        <v>0.4821694249720139</v>
+        <v>0.6093716701516314</v>
       </c>
       <c r="I17">
-        <v>0.2753233449653294</v>
+        <v>0.3961327913907482</v>
       </c>
       <c r="J17">
-        <v>0.05558695393412449</v>
+        <v>0.04452444236100916</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5172490917672974</v>
+        <v>0.8672183531916389</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.948841048357224</v>
+        <v>1.269076842146319</v>
       </c>
       <c r="C18">
-        <v>1.239991989198188</v>
+        <v>0.3703393837253657</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9660993751827363</v>
+        <v>0.7006649183010438</v>
       </c>
       <c r="F18">
-        <v>3.195189826772435</v>
+        <v>2.439166570730492</v>
       </c>
       <c r="G18">
-        <v>0.8825752529631359</v>
+        <v>0.5497849376586856</v>
       </c>
       <c r="H18">
-        <v>0.4733637190341682</v>
+        <v>0.6088639542845584</v>
       </c>
       <c r="I18">
-        <v>0.2711167352281123</v>
+        <v>0.3965769062084377</v>
       </c>
       <c r="J18">
-        <v>0.05425953706964748</v>
+        <v>0.04435214667101661</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5208409011452133</v>
+        <v>0.8688866297626987</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.91370908521003</v>
+        <v>1.259063840235171</v>
       </c>
       <c r="C19">
-        <v>1.228898987104344</v>
+        <v>0.3672144948831146</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9579421647211035</v>
+        <v>0.6988774085377543</v>
       </c>
       <c r="F19">
-        <v>3.168631762625694</v>
+        <v>2.434276512188859</v>
       </c>
       <c r="G19">
-        <v>0.8747713278819589</v>
+        <v>0.548502245842144</v>
       </c>
       <c r="H19">
-        <v>0.470415177512379</v>
+        <v>0.6086998323368675</v>
       </c>
       <c r="I19">
-        <v>0.2697220033493792</v>
+        <v>0.3967338862857446</v>
       </c>
       <c r="J19">
-        <v>0.0538143576979877</v>
+        <v>0.04429454062800176</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5220813932381958</v>
+        <v>0.8694589981607805</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.072034424412095</v>
+        <v>1.304126146376746</v>
       </c>
       <c r="C20">
-        <v>1.278910348641318</v>
+        <v>0.3812752521506582</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9947634867492212</v>
+        <v>0.706941185910182</v>
       </c>
       <c r="F20">
-        <v>3.288733517550583</v>
+        <v>2.456389300189898</v>
       </c>
       <c r="G20">
-        <v>0.9101439372058024</v>
+        <v>0.5543135085636806</v>
       </c>
       <c r="H20">
-        <v>0.4838150622568094</v>
+        <v>0.6094693362884982</v>
       </c>
       <c r="I20">
-        <v>0.2761161596403596</v>
+        <v>0.3960537391252856</v>
       </c>
       <c r="J20">
-        <v>0.05583469095168425</v>
+        <v>0.04455667784208828</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5165960265275444</v>
+        <v>0.8669131643068582</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.608404583591323</v>
+        <v>1.455573587534104</v>
       </c>
       <c r="C21">
-        <v>1.448723364487364</v>
+        <v>0.4284898460776958</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.12063265820359</v>
+        <v>0.7343810619825604</v>
       </c>
       <c r="F21">
-        <v>3.703375801619728</v>
+        <v>2.53256445855888</v>
       </c>
       <c r="G21">
-        <v>1.033784415632738</v>
+        <v>0.5745258596931109</v>
       </c>
       <c r="H21">
-        <v>0.5312910575859178</v>
+        <v>0.6125978995221004</v>
       </c>
       <c r="I21">
-        <v>0.2997979334617042</v>
+        <v>0.3942305000131583</v>
       </c>
       <c r="J21">
-        <v>0.06294292783265831</v>
+        <v>0.04548854139208913</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4999381956744884</v>
+        <v>0.8588827502499399</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.96281014352104</v>
+        <v>1.554583014680475</v>
       </c>
       <c r="C22">
-        <v>1.561265275172445</v>
+        <v>0.4593269858704048</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.204732696881663</v>
+        <v>0.7525735697339542</v>
       </c>
       <c r="F22">
-        <v>3.983737117919247</v>
+        <v>2.583758540159863</v>
       </c>
       <c r="G22">
-        <v>1.118611282940492</v>
+        <v>0.5882537442579121</v>
       </c>
       <c r="H22">
-        <v>0.5643546786250226</v>
+        <v>0.6150495162920038</v>
       </c>
       <c r="I22">
-        <v>0.3170922181387397</v>
+        <v>0.3933857030779606</v>
       </c>
       <c r="J22">
-        <v>0.06785712813248068</v>
+        <v>0.04613603822117085</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4904684590044326</v>
+        <v>0.8540246558138946</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.773266086274134</v>
+        <v>1.501737300845718</v>
       </c>
       <c r="C23">
-        <v>1.501041106836681</v>
+        <v>0.4428704662896052</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.159662992940838</v>
+        <v>0.74284015332249</v>
       </c>
       <c r="F23">
-        <v>3.83317203215492</v>
+        <v>2.556305796489283</v>
       </c>
       <c r="G23">
-        <v>1.072939284942663</v>
+        <v>0.5808791558105781</v>
       </c>
       <c r="H23">
-        <v>0.5465077793789135</v>
+        <v>0.6137036728115106</v>
       </c>
       <c r="I23">
-        <v>0.3076835922307666</v>
+        <v>0.3938046951200604</v>
       </c>
       <c r="J23">
-        <v>0.06520771979319306</v>
+        <v>0.04578691305971461</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4953864744829914</v>
+        <v>0.8565817863363208</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.063324684738461</v>
+        <v>1.301651364997383</v>
       </c>
       <c r="C24">
-        <v>1.276157815615761</v>
+        <v>0.3805032071078926</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9927338828587722</v>
+        <v>0.7064970589479884</v>
       </c>
       <c r="F24">
-        <v>3.282098879093098</v>
+        <v>2.455167923601891</v>
       </c>
       <c r="G24">
-        <v>0.9081844883745305</v>
+        <v>0.5539918105656767</v>
       </c>
       <c r="H24">
-        <v>0.4830704679528424</v>
+        <v>0.6094250408674782</v>
       </c>
       <c r="I24">
-        <v>0.2757571832574683</v>
+        <v>0.3960893579578268</v>
       </c>
       <c r="J24">
-        <v>0.05572261116306976</v>
+        <v>0.04454209115192498</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5168908223700299</v>
+        <v>0.8670510015203519</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.310583785610788</v>
+        <v>1.085974339969994</v>
       </c>
       <c r="C25">
-        <v>1.038839924699886</v>
+        <v>0.3131408562290972</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8191258274059834</v>
+        <v>0.6684031713612484</v>
       </c>
       <c r="F25">
-        <v>2.72116168186534</v>
+        <v>2.352068583461232</v>
       </c>
       <c r="G25">
-        <v>0.7449378767548751</v>
+        <v>0.5271762343753181</v>
       </c>
       <c r="H25">
-        <v>0.4220960906621229</v>
+        <v>0.6065431949861448</v>
       </c>
       <c r="I25">
-        <v>0.248006259713911</v>
+        <v>0.4000265391705327</v>
       </c>
       <c r="J25">
-        <v>0.04645816787268231</v>
+        <v>0.04336210953906061</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5455689132630042</v>
+        <v>0.8800175854510357</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_79/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9272846058831874</v>
+        <v>2.764037068772552</v>
       </c>
       <c r="C2">
-        <v>0.2634518976413744</v>
+        <v>0.8671997674046281</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6412964237335359</v>
+        <v>0.6954496107580184</v>
       </c>
       <c r="F2">
-        <v>2.281229430714916</v>
+        <v>2.330361349613767</v>
       </c>
       <c r="G2">
-        <v>0.5092661030865457</v>
+        <v>0.6344440599805239</v>
       </c>
       <c r="H2">
-        <v>0.6058954889206092</v>
+        <v>0.3823529416019511</v>
       </c>
       <c r="I2">
-        <v>0.4041742183378254</v>
+        <v>0.2322351550415114</v>
       </c>
       <c r="J2">
-        <v>0.04263032953159041</v>
+        <v>0.04028689715128664</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8910042122132182</v>
+        <v>0.5708120063652302</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8198046374234877</v>
+        <v>2.396908820423732</v>
       </c>
       <c r="C3">
-        <v>0.2297148884699425</v>
+        <v>0.7521966965585989</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6235082885638974</v>
+        <v>0.613626258605251</v>
       </c>
       <c r="F3">
-        <v>2.236345635763882</v>
+        <v>2.076532635843577</v>
       </c>
       <c r="G3">
-        <v>0.4982493348151849</v>
+        <v>0.5644229559994329</v>
       </c>
       <c r="H3">
-        <v>0.6063680181053002</v>
+        <v>0.3580853617282713</v>
       </c>
       <c r="I3">
-        <v>0.4077551735070664</v>
+        <v>0.2239792763467676</v>
       </c>
       <c r="J3">
-        <v>0.04221842670643738</v>
+        <v>0.0364316579879258</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8993479844436933</v>
+        <v>0.5902359562971426</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7538440884654847</v>
+        <v>2.172657892393886</v>
       </c>
       <c r="C4">
-        <v>0.2089680199773056</v>
+        <v>0.6820566839589333</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6128722674480471</v>
+        <v>0.5641968103571458</v>
       </c>
       <c r="F4">
-        <v>2.210316002449588</v>
+        <v>1.925285349090146</v>
       </c>
       <c r="G4">
-        <v>0.4920306353164818</v>
+        <v>0.5234756162379171</v>
       </c>
       <c r="H4">
-        <v>0.6071051769158942</v>
+        <v>0.3443387099858484</v>
       </c>
       <c r="I4">
-        <v>0.4103307938338645</v>
+        <v>0.2199687595081983</v>
       </c>
       <c r="J4">
-        <v>0.04200650065330791</v>
+        <v>0.0342027929180091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9049141731238635</v>
+        <v>0.6032279887223453</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7269734137487376</v>
+        <v>2.081507679612969</v>
       </c>
       <c r="C5">
-        <v>0.2005053538736377</v>
+        <v>0.6535689323952738</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6086098355900162</v>
+        <v>0.5442345172777507</v>
       </c>
       <c r="F5">
-        <v>2.200091814189193</v>
+        <v>1.864695848152934</v>
       </c>
       <c r="G5">
-        <v>0.4896326738082593</v>
+        <v>0.5072554847086366</v>
       </c>
       <c r="H5">
-        <v>0.6075176360250367</v>
+        <v>0.3390048065732287</v>
       </c>
       <c r="I5">
-        <v>0.411474732027127</v>
+        <v>0.2185811970262712</v>
       </c>
       <c r="J5">
-        <v>0.04193038097091417</v>
+        <v>0.03332612868270246</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9072938784523217</v>
+        <v>0.6087796458713726</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.722512106970612</v>
+        <v>2.066384720260942</v>
       </c>
       <c r="C6">
-        <v>0.1990996411257697</v>
+        <v>0.6488436288890966</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6079063984795567</v>
+        <v>0.5409300589925863</v>
       </c>
       <c r="F6">
-        <v>2.198417192211423</v>
+        <v>1.854694979742362</v>
       </c>
       <c r="G6">
-        <v>0.4892426917128603</v>
+        <v>0.5045889571462254</v>
       </c>
       <c r="H6">
-        <v>0.6075928826437149</v>
+        <v>0.3381346819788007</v>
       </c>
       <c r="I6">
-        <v>0.411670368380463</v>
+        <v>0.2183651528107546</v>
       </c>
       <c r="J6">
-        <v>0.04191835807998245</v>
+        <v>0.03318238091609871</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9076957581016885</v>
+        <v>0.6097167364575782</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.75348166478949</v>
+        <v>2.171427737519707</v>
       </c>
       <c r="C7">
-        <v>0.2088539225558463</v>
+        <v>0.6816721343089398</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6128144920489262</v>
+        <v>0.5639268899218948</v>
       </c>
       <c r="F7">
-        <v>2.210176566217541</v>
+        <v>1.924464129893011</v>
       </c>
       <c r="G7">
-        <v>0.4919977453850208</v>
+        <v>0.5232550393892836</v>
       </c>
       <c r="H7">
-        <v>0.6071102862168658</v>
+        <v>0.3442657182632587</v>
       </c>
       <c r="I7">
-        <v>0.4103458399192448</v>
+        <v>0.2199490720034412</v>
       </c>
       <c r="J7">
-        <v>0.04200543269177359</v>
+        <v>0.0341908459057727</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9049458154238295</v>
+        <v>0.6033018320815557</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8902190672761208</v>
+        <v>2.637171555182988</v>
       </c>
       <c r="C8">
-        <v>0.2518260207222056</v>
+        <v>0.8274336749514077</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6351036692010723</v>
+        <v>0.6670541546448874</v>
       </c>
       <c r="F8">
-        <v>2.265435228476164</v>
+        <v>2.241814880927507</v>
       </c>
       <c r="G8">
-        <v>0.5053536681960935</v>
+        <v>0.6098460563670045</v>
       </c>
       <c r="H8">
-        <v>0.6059654260014895</v>
+        <v>0.3737321944352772</v>
       </c>
       <c r="I8">
-        <v>0.4053304513201006</v>
+        <v>0.2291566896072332</v>
       </c>
       <c r="J8">
-        <v>0.04247976046560353</v>
+        <v>0.03892694279757691</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8937891953170549</v>
+        <v>0.5772815596486183</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.158607299643222</v>
+        <v>3.562731567581977</v>
       </c>
       <c r="C9">
-        <v>0.3358451710723216</v>
+        <v>1.118211756341537</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6810881866650362</v>
+        <v>0.8768750297239905</v>
       </c>
       <c r="F9">
-        <v>2.386004436541981</v>
+        <v>2.906255249991943</v>
       </c>
       <c r="G9">
-        <v>0.535921121353411</v>
+        <v>0.7982497202235805</v>
       </c>
       <c r="H9">
-        <v>0.6072838587067366</v>
+        <v>0.4417567456097515</v>
       </c>
       <c r="I9">
-        <v>0.3985051194819036</v>
+        <v>0.2565620604348879</v>
       </c>
       <c r="J9">
-        <v>0.04373810663318167</v>
+        <v>0.04946665942054906</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.875426176943229</v>
+        <v>0.5352306563956333</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.355947102412756</v>
+        <v>4.254811672095116</v>
       </c>
       <c r="C10">
-        <v>0.397437545182413</v>
+        <v>1.336709321589524</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7162737084558159</v>
+        <v>1.037461880048383</v>
       </c>
       <c r="F10">
-        <v>2.482143533284869</v>
+        <v>3.4286976575263</v>
       </c>
       <c r="G10">
-        <v>0.5611153989909212</v>
+        <v>0.9516233314896283</v>
       </c>
       <c r="H10">
-        <v>0.6104491749223939</v>
+        <v>0.4996375952637919</v>
       </c>
       <c r="I10">
-        <v>0.3953524996929403</v>
+        <v>0.283840590259679</v>
       </c>
       <c r="J10">
-        <v>0.04486701852786723</v>
+        <v>0.05821164502329879</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8640776577463853</v>
+        <v>0.5105925763601391</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.445758203071875</v>
+        <v>4.573435970400169</v>
       </c>
       <c r="C11">
-        <v>0.4254315965901014</v>
+        <v>1.437633860752896</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.732587914826567</v>
+        <v>1.112374468689694</v>
       </c>
       <c r="F11">
-        <v>2.527546458624442</v>
+        <v>3.675985033935945</v>
       </c>
       <c r="G11">
-        <v>0.5731860576235448</v>
+        <v>1.025548048629076</v>
       </c>
       <c r="H11">
-        <v>0.6123714998538787</v>
+        <v>0.5281005174667683</v>
       </c>
       <c r="I11">
-        <v>0.3943284823118276</v>
+        <v>0.2981613536371057</v>
       </c>
       <c r="J11">
-        <v>0.04542592343729979</v>
+        <v>0.06246732024096247</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8593803704753284</v>
+        <v>0.5009370794413925</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.479772873619652</v>
+        <v>4.694743765607484</v>
       </c>
       <c r="C12">
-        <v>0.4360288444809157</v>
+        <v>1.476115186924915</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7388101697025036</v>
+        <v>1.141053285808724</v>
       </c>
       <c r="F12">
-        <v>2.544981194471603</v>
+        <v>3.771215415496215</v>
       </c>
       <c r="G12">
-        <v>0.5778457256316898</v>
+        <v>1.054223612809565</v>
       </c>
       <c r="H12">
-        <v>0.6131692218982892</v>
+        <v>0.5392243491287729</v>
       </c>
       <c r="I12">
-        <v>0.3940001676072313</v>
+        <v>0.303892879804863</v>
       </c>
       <c r="J12">
-        <v>0.04564416285742823</v>
+        <v>0.06412439524780922</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8576685564841497</v>
+        <v>0.4975221987103851</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.472446986295665</v>
+        <v>4.668587159275887</v>
       </c>
       <c r="C13">
-        <v>0.4337466919985786</v>
+        <v>1.467815082001664</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7374681184387981</v>
+        <v>1.134862205017185</v>
       </c>
       <c r="F13">
-        <v>2.541215538694985</v>
+        <v>3.750631719170229</v>
       </c>
       <c r="G13">
-        <v>0.5768382169797803</v>
+        <v>1.048016044804129</v>
       </c>
       <c r="H13">
-        <v>0.6129943081663498</v>
+        <v>0.5368125999298456</v>
       </c>
       <c r="I13">
-        <v>0.3940682239054567</v>
+        <v>0.3026441944989529</v>
       </c>
       <c r="J13">
-        <v>0.0455968666612776</v>
+        <v>0.06376539231654021</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8580342479042145</v>
+        <v>0.498246606815556</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.448556510718504</v>
+        <v>4.58340232446858</v>
       </c>
       <c r="C14">
-        <v>0.4263035082313991</v>
+        <v>1.440794196183163</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7330989326114832</v>
+        <v>1.114727390081157</v>
       </c>
       <c r="F14">
-        <v>2.528975972526013</v>
+        <v>3.683786615881417</v>
       </c>
       <c r="G14">
-        <v>0.5735676258590416</v>
+        <v>1.027893021541132</v>
       </c>
       <c r="H14">
-        <v>0.6124357280857993</v>
+        <v>0.5290085187190243</v>
       </c>
       <c r="I14">
-        <v>0.3943002772527961</v>
+        <v>0.298626499868746</v>
       </c>
       <c r="J14">
-        <v>0.04544374555347019</v>
+        <v>0.06260270147976144</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8592381964829059</v>
+        <v>0.5006511855259816</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.433923557583796</v>
+        <v>4.531312375126276</v>
       </c>
       <c r="C15">
-        <v>0.421743890071582</v>
+        <v>1.424278804085873</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7304284681367932</v>
+        <v>1.102436124048154</v>
       </c>
       <c r="F15">
-        <v>2.521510402438196</v>
+        <v>3.643055321575901</v>
       </c>
       <c r="G15">
-        <v>0.5715758878897503</v>
+        <v>1.015658555179073</v>
       </c>
       <c r="H15">
-        <v>0.6121026812042629</v>
+        <v>0.5242745196609775</v>
       </c>
       <c r="I15">
-        <v>0.3944501742482558</v>
+        <v>0.2962067909683554</v>
       </c>
       <c r="J15">
-        <v>0.04535081536453589</v>
+        <v>0.06189662897291015</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8599843698039535</v>
+        <v>0.5021560737037234</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.350078491257818</v>
+        <v>4.234073974086073</v>
       </c>
       <c r="C16">
-        <v>0.3956075766478762</v>
+        <v>1.330148039263577</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7152137464171204</v>
+        <v>1.032607205408866</v>
       </c>
       <c r="F16">
-        <v>2.47921006722791</v>
+        <v>3.412747437213937</v>
       </c>
       <c r="G16">
-        <v>0.5603389151255413</v>
+        <v>0.9468827886801563</v>
       </c>
       <c r="H16">
-        <v>0.6103332886791719</v>
+        <v>0.497823618022835</v>
       </c>
       <c r="I16">
-        <v>0.3954277156335237</v>
+        <v>0.2829459596220687</v>
       </c>
       <c r="J16">
-        <v>0.04483141162020132</v>
+        <v>0.05793957867575017</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8643940018529221</v>
+        <v>0.5112563414942883</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.298652111627575</v>
+        <v>4.052771420338047</v>
       </c>
       <c r="C17">
-        <v>0.3795675209228193</v>
+        <v>1.272822882442313</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7059590046371085</v>
+        <v>0.9902753095974361</v>
       </c>
       <c r="F17">
-        <v>2.453688772807197</v>
+        <v>3.274064227577753</v>
       </c>
       <c r="G17">
-        <v>0.5536023274106157</v>
+        <v>0.9058124003997392</v>
       </c>
       <c r="H17">
-        <v>0.6093716701516314</v>
+        <v>0.4821694249721276</v>
       </c>
       <c r="I17">
-        <v>0.3961327913907482</v>
+        <v>0.2753233449653223</v>
       </c>
       <c r="J17">
-        <v>0.04452444236100916</v>
+        <v>0.05558695393406055</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8672183531916389</v>
+        <v>0.5172490917672903</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.269076842146319</v>
+        <v>3.948841048357167</v>
       </c>
       <c r="C18">
-        <v>0.3703393837253657</v>
+        <v>1.239991989198188</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7006649183010438</v>
+        <v>0.9660993751827505</v>
       </c>
       <c r="F18">
-        <v>2.439166570730492</v>
+        <v>3.195189826772435</v>
       </c>
       <c r="G18">
-        <v>0.5497849376586856</v>
+        <v>0.8825752529632211</v>
       </c>
       <c r="H18">
-        <v>0.6088639542845584</v>
+        <v>0.4733637190341682</v>
       </c>
       <c r="I18">
-        <v>0.3965769062084377</v>
+        <v>0.2711167352281265</v>
       </c>
       <c r="J18">
-        <v>0.04435214667101661</v>
+        <v>0.05425953706947695</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8688866297626987</v>
+        <v>0.5208409011452062</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.259063840235171</v>
+        <v>3.913709085209916</v>
       </c>
       <c r="C19">
-        <v>0.3672144948831146</v>
+        <v>1.228898987104458</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6988774085377543</v>
+        <v>0.9579421647210893</v>
       </c>
       <c r="F19">
-        <v>2.434276512188859</v>
+        <v>3.168631762625694</v>
       </c>
       <c r="G19">
-        <v>0.548502245842144</v>
+        <v>0.8747713278819305</v>
       </c>
       <c r="H19">
-        <v>0.6086998323368675</v>
+        <v>0.4704151775122511</v>
       </c>
       <c r="I19">
-        <v>0.3967338862857446</v>
+        <v>0.2697220033493579</v>
       </c>
       <c r="J19">
-        <v>0.04429454062800176</v>
+        <v>0.05381435769794507</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8694589981607805</v>
+        <v>0.5220813932381958</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.304126146376746</v>
+        <v>4.072034424412038</v>
       </c>
       <c r="C20">
-        <v>0.3812752521506582</v>
+        <v>1.278910348641432</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.706941185910182</v>
+        <v>0.9947634867492496</v>
       </c>
       <c r="F20">
-        <v>2.456389300189898</v>
+        <v>3.288733517550554</v>
       </c>
       <c r="G20">
-        <v>0.5543135085636806</v>
+        <v>0.9101439372058451</v>
       </c>
       <c r="H20">
-        <v>0.6094693362884982</v>
+        <v>0.4838150622568094</v>
       </c>
       <c r="I20">
-        <v>0.3960537391252856</v>
+        <v>0.2761161596403738</v>
       </c>
       <c r="J20">
-        <v>0.04455667784208828</v>
+        <v>0.05583469095159188</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8669131643068582</v>
+        <v>0.51659602652758</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.455573587534104</v>
+        <v>4.60840458359138</v>
       </c>
       <c r="C21">
-        <v>0.4284898460776958</v>
+        <v>1.448723364487194</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7343810619825604</v>
+        <v>1.120632658203633</v>
       </c>
       <c r="F21">
-        <v>2.53256445855888</v>
+        <v>3.703375801619728</v>
       </c>
       <c r="G21">
-        <v>0.5745258596931109</v>
+        <v>1.033784415632681</v>
       </c>
       <c r="H21">
-        <v>0.6125978995221004</v>
+        <v>0.5312910575858183</v>
       </c>
       <c r="I21">
-        <v>0.3942305000131583</v>
+        <v>0.2997979334617114</v>
       </c>
       <c r="J21">
-        <v>0.04548854139208913</v>
+        <v>0.06294292783266542</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8588827502499399</v>
+        <v>0.4999381956744955</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.554583014680475</v>
+        <v>4.962810143520983</v>
       </c>
       <c r="C22">
-        <v>0.4593269858704048</v>
+        <v>1.561265275172559</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7525735697339542</v>
+        <v>1.204732696881678</v>
       </c>
       <c r="F22">
-        <v>2.583758540159863</v>
+        <v>3.983737117919219</v>
       </c>
       <c r="G22">
-        <v>0.5882537442579121</v>
+        <v>1.118611282940549</v>
       </c>
       <c r="H22">
-        <v>0.6150495162920038</v>
+        <v>0.5643546786250226</v>
       </c>
       <c r="I22">
-        <v>0.3933857030779606</v>
+        <v>0.3170922181387326</v>
       </c>
       <c r="J22">
-        <v>0.04613603822117085</v>
+        <v>0.06785712813235989</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8540246558138946</v>
+        <v>0.4904684590044184</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.501737300845718</v>
+        <v>4.773266086274077</v>
       </c>
       <c r="C23">
-        <v>0.4428704662896052</v>
+        <v>1.501041106836681</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.74284015332249</v>
+        <v>1.159662992940795</v>
       </c>
       <c r="F23">
-        <v>2.556305796489283</v>
+        <v>3.833172032154891</v>
       </c>
       <c r="G23">
-        <v>0.5808791558105781</v>
+        <v>1.072939284942635</v>
       </c>
       <c r="H23">
-        <v>0.6137036728115106</v>
+        <v>0.5465077793790556</v>
       </c>
       <c r="I23">
-        <v>0.3938046951200604</v>
+        <v>0.3076835922307879</v>
       </c>
       <c r="J23">
-        <v>0.04578691305971461</v>
+        <v>0.06520771979320017</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8565817863363208</v>
+        <v>0.4953864744830483</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.301651364997383</v>
+        <v>4.063324684738518</v>
       </c>
       <c r="C24">
-        <v>0.3805032071078926</v>
+        <v>1.276157815615761</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7064970589479884</v>
+        <v>0.9927338828587295</v>
       </c>
       <c r="F24">
-        <v>2.455167923601891</v>
+        <v>3.282098879093127</v>
       </c>
       <c r="G24">
-        <v>0.5539918105656767</v>
+        <v>0.9081844883745589</v>
       </c>
       <c r="H24">
-        <v>0.6094250408674782</v>
+        <v>0.4830704679528282</v>
       </c>
       <c r="I24">
-        <v>0.3960893579578268</v>
+        <v>0.2757571832574612</v>
       </c>
       <c r="J24">
-        <v>0.04454209115192498</v>
+        <v>0.05572261116306976</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8670510015203519</v>
+        <v>0.5168908223700655</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.085974339969994</v>
+        <v>3.310583785610959</v>
       </c>
       <c r="C25">
-        <v>0.3131408562290972</v>
+        <v>1.038839924700227</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6684031713612484</v>
+        <v>0.8191258274059834</v>
       </c>
       <c r="F25">
-        <v>2.352068583461232</v>
+        <v>2.721161681865311</v>
       </c>
       <c r="G25">
-        <v>0.5271762343753181</v>
+        <v>0.7449378767549177</v>
       </c>
       <c r="H25">
-        <v>0.6065431949861448</v>
+        <v>0.4220960906620235</v>
       </c>
       <c r="I25">
-        <v>0.4000265391705327</v>
+        <v>0.2480062597139252</v>
       </c>
       <c r="J25">
-        <v>0.04336210953906061</v>
+        <v>0.04645816787266455</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8800175854510357</v>
+        <v>0.5455689132629757</v>
       </c>
       <c r="O25">
         <v>0</v>
